--- a/doc/schedule_step4tech.xlsx
+++ b/doc/schedule_step4tech.xlsx
@@ -772,9 +772,11 @@
         <v>21</v>
       </c>
       <c r="E12" s="13">
-        <v>44508.0</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>44516.0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>44517.0</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
@@ -792,9 +794,11 @@
         <v>21</v>
       </c>
       <c r="E13" s="13">
-        <v>44508.0</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>44513.0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>44515.0</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -815,7 +819,7 @@
         <v>44510.0</v>
       </c>
       <c r="F14" s="10">
-        <v>44513.0</v>
+        <v>44512.0</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
